--- a/Code/Results/Cases/Case_5_107/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_107/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.934474278114692</v>
+        <v>0.4712233308538032</v>
       </c>
       <c r="C2">
-        <v>0.1155653578938995</v>
+        <v>0.1274291188181138</v>
       </c>
       <c r="D2">
-        <v>0.07309357324159294</v>
+        <v>0.04711151860685447</v>
       </c>
       <c r="E2">
-        <v>0.04952643905578746</v>
+        <v>0.1138147368154083</v>
       </c>
       <c r="F2">
-        <v>0.5344896174394265</v>
+        <v>0.9367715181862977</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,25 +442,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3896263349106022</v>
+        <v>0.8793434615819109</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8498773860221718</v>
+        <v>0.2882797096711442</v>
       </c>
       <c r="L2">
-        <v>0.1605986767292649</v>
+        <v>0.2091133763820139</v>
       </c>
       <c r="M2">
-        <v>0.2058912710876335</v>
+        <v>0.1483359338671875</v>
       </c>
       <c r="N2">
-        <v>0.891524536336648</v>
+        <v>1.8697055941516</v>
       </c>
       <c r="O2">
-        <v>1.636366952258044</v>
+        <v>3.342655214366857</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.812794704724098</v>
+        <v>0.4369290482055703</v>
       </c>
       <c r="C3">
-        <v>0.1097957886021703</v>
+        <v>0.1253961860420318</v>
       </c>
       <c r="D3">
-        <v>0.06654351519899393</v>
+        <v>0.04480277232477192</v>
       </c>
       <c r="E3">
-        <v>0.04876087102867999</v>
+        <v>0.1142244436021809</v>
       </c>
       <c r="F3">
-        <v>0.5123590235576998</v>
+        <v>0.937333887060035</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,25 +489,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3910505083646569</v>
+        <v>0.8851256903599563</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7398540560631091</v>
+        <v>0.2553132173878652</v>
       </c>
       <c r="L3">
-        <v>0.146192591791042</v>
+        <v>0.2064207288184434</v>
       </c>
       <c r="M3">
-        <v>0.1804225299409197</v>
+        <v>0.1417215665227225</v>
       </c>
       <c r="N3">
-        <v>0.9317071267044967</v>
+        <v>1.887282939824448</v>
       </c>
       <c r="O3">
-        <v>1.608511690664542</v>
+        <v>3.357312927166845</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7382716673743346</v>
+        <v>0.4160029602486759</v>
       </c>
       <c r="C4">
-        <v>0.10624224968916</v>
+        <v>0.1241315927486966</v>
       </c>
       <c r="D4">
-        <v>0.06250335988993783</v>
+        <v>0.04336901101641644</v>
       </c>
       <c r="E4">
-        <v>0.04835026860346225</v>
+        <v>0.1145169273562843</v>
       </c>
       <c r="F4">
-        <v>0.4996551412251904</v>
+        <v>0.9381647070590091</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3925711252899937</v>
+        <v>0.8890516628248832</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.672339995584025</v>
+        <v>0.2350736876104662</v>
       </c>
       <c r="L4">
-        <v>0.1375085674257406</v>
+        <v>0.2048670834967581</v>
       </c>
       <c r="M4">
-        <v>0.1648774249989096</v>
+        <v>0.1377204289288336</v>
       </c>
       <c r="N4">
-        <v>0.9574175930988464</v>
+        <v>1.898628565866457</v>
       </c>
       <c r="O4">
-        <v>1.594229671336237</v>
+        <v>3.367895021276709</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7079411160372899</v>
+        <v>0.4075088987898994</v>
       </c>
       <c r="C5">
-        <v>0.1047909825504831</v>
+        <v>0.123612163087067</v>
       </c>
       <c r="D5">
-        <v>0.06085206748211647</v>
+        <v>0.04278069542084495</v>
       </c>
       <c r="E5">
-        <v>0.04819749652274652</v>
+        <v>0.1146464275102659</v>
       </c>
       <c r="F5">
-        <v>0.4946909107789779</v>
+        <v>0.9386254845195126</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.3933480044013784</v>
+        <v>0.8907460646974954</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6448296967787002</v>
+        <v>0.2268269068872542</v>
       </c>
       <c r="L5">
-        <v>0.1340080395983563</v>
+        <v>0.2042590956540238</v>
       </c>
       <c r="M5">
-        <v>0.1585635812616637</v>
+        <v>0.1361051756573453</v>
       </c>
       <c r="N5">
-        <v>0.9681506323868172</v>
+        <v>1.903391114857171</v>
       </c>
       <c r="O5">
-        <v>1.589091624321057</v>
+        <v>3.372605473493451</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.7029067960489783</v>
+        <v>0.4061005070761041</v>
       </c>
       <c r="C6">
-        <v>0.1045497978624539</v>
+        <v>0.1235256652118863</v>
       </c>
       <c r="D6">
-        <v>0.06057756823834382</v>
+        <v>0.04268276235237778</v>
       </c>
       <c r="E6">
-        <v>0.04817299633148053</v>
+        <v>0.1146685542510895</v>
       </c>
       <c r="F6">
-        <v>0.4938791756690932</v>
+        <v>0.9387093811539202</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.3934863501402752</v>
+        <v>0.8910331307512145</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6402615411900427</v>
+        <v>0.2254576093132101</v>
       </c>
       <c r="L6">
-        <v>0.1334290266057323</v>
+        <v>0.204159660109859</v>
       </c>
       <c r="M6">
-        <v>0.1575163667602517</v>
+        <v>0.1358378884570826</v>
       </c>
       <c r="N6">
-        <v>0.9699481468873761</v>
+        <v>1.904190335905513</v>
       </c>
       <c r="O6">
-        <v>1.588278866709246</v>
+        <v>3.37341169757353</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7378624762183961</v>
+        <v>0.4158882699551043</v>
       </c>
       <c r="C7">
-        <v>0.1062226907499806</v>
+        <v>0.1241246041058233</v>
       </c>
       <c r="D7">
-        <v>0.06248111015740676</v>
+        <v>0.04336109313921099</v>
       </c>
       <c r="E7">
-        <v>0.04834814986304004</v>
+        <v>0.114518632065872</v>
       </c>
       <c r="F7">
-        <v>0.499587343137712</v>
+        <v>0.938170426272201</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3925809727937235</v>
+        <v>0.8890741312502719</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6719689833317659</v>
+        <v>0.2349624639871735</v>
       </c>
       <c r="L7">
-        <v>0.1374612060385587</v>
+        <v>0.2048587820862906</v>
       </c>
       <c r="M7">
-        <v>0.1647921927389042</v>
+        <v>0.1376985831718436</v>
       </c>
       <c r="N7">
-        <v>0.9575613135938799</v>
+        <v>1.898692231943724</v>
       </c>
       <c r="O7">
-        <v>1.594157651852953</v>
+        <v>3.367956935530401</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8924742385215723</v>
+        <v>0.4593718841306327</v>
       </c>
       <c r="C8">
-        <v>0.1135780400464625</v>
+        <v>0.126731569881926</v>
       </c>
       <c r="D8">
-        <v>0.07083876167559566</v>
+        <v>0.04631883451543217</v>
       </c>
       <c r="E8">
-        <v>0.04924988454416024</v>
+        <v>0.1139475224948843</v>
       </c>
       <c r="F8">
-        <v>0.5266694693819929</v>
+        <v>0.9368647240680659</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.3899800365607113</v>
+        <v>0.8812592493873446</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8119279122541343</v>
+        <v>0.2769127208750319</v>
       </c>
       <c r="L8">
-        <v>0.1555965493892444</v>
+        <v>0.2081643138938603</v>
       </c>
       <c r="M8">
-        <v>0.1970888852201398</v>
+        <v>0.1460428982162014</v>
       </c>
       <c r="N8">
-        <v>0.9051607963411924</v>
+        <v>1.875651501021022</v>
       </c>
       <c r="O8">
-        <v>1.626160022660585</v>
+        <v>3.347380988038239</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.197620201954265</v>
+        <v>0.545657917297774</v>
       </c>
       <c r="C9">
-        <v>0.1279348166801171</v>
+        <v>0.1317134242825162</v>
       </c>
       <c r="D9">
-        <v>0.08709574688067079</v>
+        <v>0.05198979441599505</v>
       </c>
       <c r="E9">
-        <v>0.05150891769635813</v>
+        <v>0.1131514229903594</v>
       </c>
       <c r="F9">
-        <v>0.5872549326753926</v>
+        <v>0.9381523226505735</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.3902556564888826</v>
+        <v>0.8689119607085303</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.087104692838523</v>
+        <v>0.3591759359457853</v>
       </c>
       <c r="L9">
-        <v>0.1925505421156046</v>
+        <v>0.2154342973658885</v>
       </c>
       <c r="M9">
-        <v>0.2612770545066709</v>
+        <v>0.1628783510069312</v>
       </c>
       <c r="N9">
-        <v>0.8108855825475756</v>
+        <v>1.834854470795763</v>
       </c>
       <c r="O9">
-        <v>1.712603004805743</v>
+        <v>3.319574191233016</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.423690819088733</v>
+        <v>0.6096470512793815</v>
       </c>
       <c r="C10">
-        <v>0.138473030402352</v>
+        <v>0.1352936603265462</v>
       </c>
       <c r="D10">
-        <v>0.09897996427552869</v>
+        <v>0.05607682412168913</v>
       </c>
       <c r="E10">
-        <v>0.05349550870967335</v>
+        <v>0.1127628699070566</v>
       </c>
       <c r="F10">
-        <v>0.6370012502599067</v>
+        <v>0.9414399595125289</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.3940990878345261</v>
+        <v>0.8616518914159741</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.290313709985071</v>
+        <v>0.4195967128333393</v>
       </c>
       <c r="L10">
-        <v>0.2207117670522507</v>
+        <v>0.2212528341921853</v>
       </c>
       <c r="M10">
-        <v>0.3091342836475377</v>
+        <v>0.1755303499955545</v>
       </c>
       <c r="N10">
-        <v>0.7471444576398185</v>
+        <v>1.807550091563199</v>
       </c>
       <c r="O10">
-        <v>1.792460139025678</v>
+        <v>3.306778344179207</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.527108181268147</v>
+        <v>0.638881828771332</v>
       </c>
       <c r="C11">
-        <v>0.1432725986605874</v>
+        <v>0.1369049701394545</v>
       </c>
       <c r="D11">
-        <v>0.104378348441827</v>
+        <v>0.05791874631211869</v>
       </c>
       <c r="E11">
-        <v>0.05447669603935701</v>
+        <v>0.1126285159728067</v>
       </c>
       <c r="F11">
-        <v>0.6609273462511567</v>
+        <v>0.9434432528822896</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.396723416132744</v>
+        <v>0.8587416733104192</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.38312654044006</v>
+        <v>0.4470764329413441</v>
       </c>
       <c r="L11">
-        <v>0.2337809923155731</v>
+        <v>0.2240028821448306</v>
       </c>
       <c r="M11">
-        <v>0.3310993203666399</v>
+        <v>0.18134655543804</v>
       </c>
       <c r="N11">
-        <v>0.7194287126232335</v>
+        <v>1.795707255514241</v>
       </c>
       <c r="O11">
-        <v>1.83278740179307</v>
+        <v>3.30261236735609</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.566366673523277</v>
+        <v>0.6499698249714356</v>
       </c>
       <c r="C12">
-        <v>0.1450915525638266</v>
+        <v>0.1375126213511066</v>
       </c>
       <c r="D12">
-        <v>0.1064218621400741</v>
+        <v>0.05861372882610993</v>
       </c>
       <c r="E12">
-        <v>0.05485995067214411</v>
+        <v>0.1125837173328179</v>
       </c>
       <c r="F12">
-        <v>0.670187907718315</v>
+        <v>0.9442747617211822</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.3978506940822797</v>
+        <v>0.8576960157322446</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.41833814167137</v>
+        <v>0.4574810075855567</v>
       </c>
       <c r="L12">
-        <v>0.238770487088928</v>
+        <v>0.2250590215760297</v>
       </c>
       <c r="M12">
-        <v>0.3394485075094096</v>
+        <v>0.1835576242304668</v>
       </c>
       <c r="N12">
-        <v>0.7091250691860793</v>
+        <v>1.791305769015727</v>
       </c>
       <c r="O12">
-        <v>1.8486731537661</v>
+        <v>3.301272551874206</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.557907132129912</v>
+        <v>0.6475810624865801</v>
       </c>
       <c r="C13">
-        <v>0.144699732456175</v>
+        <v>0.1373818650598935</v>
       </c>
       <c r="D13">
-        <v>0.1059817813083868</v>
+        <v>0.05846416413204736</v>
       </c>
       <c r="E13">
-        <v>0.05477688032127759</v>
+        <v>0.1125930954892951</v>
       </c>
       <c r="F13">
-        <v>0.6681843431581598</v>
+        <v>0.9440924406369717</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.3976018520440761</v>
+        <v>0.8579187101507983</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.410751586557893</v>
+        <v>0.4552402670532558</v>
       </c>
       <c r="L13">
-        <v>0.2376940560676246</v>
+        <v>0.2248309080426907</v>
       </c>
       <c r="M13">
-        <v>0.3376489008619288</v>
+        <v>0.183081050796666</v>
       </c>
       <c r="N13">
-        <v>0.7113354912460867</v>
+        <v>1.792250010035843</v>
       </c>
       <c r="O13">
-        <v>1.845223878523115</v>
+        <v>3.301550534738794</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.530335983963084</v>
+        <v>0.6397936995971065</v>
       </c>
       <c r="C14">
-        <v>0.1434222119186614</v>
+        <v>0.1369550125303647</v>
       </c>
       <c r="D14">
-        <v>0.1045464820299884</v>
+        <v>0.05797597347240924</v>
       </c>
       <c r="E14">
-        <v>0.05450798882436558</v>
+        <v>0.1126247086522412</v>
       </c>
       <c r="F14">
-        <v>0.6616851220647177</v>
+        <v>0.9435102010977872</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.3968134375488219</v>
+        <v>0.8586545168088477</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.386022038347903</v>
+        <v>0.4479324546755663</v>
       </c>
       <c r="L14">
-        <v>0.234190650588701</v>
+        <v>0.2240894760951591</v>
       </c>
       <c r="M14">
-        <v>0.3317855605937154</v>
+        <v>0.1815282898692701</v>
       </c>
       <c r="N14">
-        <v>0.7185771384968007</v>
+        <v>1.795343476265066</v>
       </c>
       <c r="O14">
-        <v>1.834081777658184</v>
+        <v>3.302497376370809</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.513460858108374</v>
+        <v>0.6350259637482623</v>
       </c>
       <c r="C15">
-        <v>0.1426399040778819</v>
+        <v>0.1366932246451142</v>
       </c>
       <c r="D15">
-        <v>0.1036672355969657</v>
+        <v>0.05767661445645444</v>
       </c>
       <c r="E15">
-        <v>0.05434482586332834</v>
+        <v>0.1126448636378754</v>
       </c>
       <c r="F15">
-        <v>0.6577306684496804</v>
+        <v>0.9431630538071545</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.3963481284816197</v>
+        <v>0.8591125603061229</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.370883359664674</v>
+        <v>0.4434560104456295</v>
       </c>
       <c r="L15">
-        <v>0.2320500839294368</v>
+        <v>0.2236372469231753</v>
       </c>
       <c r="M15">
-        <v>0.3281983068150467</v>
+        <v>0.1805782945992007</v>
       </c>
       <c r="N15">
-        <v>0.7230380554305443</v>
+        <v>1.797249141185607</v>
       </c>
       <c r="O15">
-        <v>1.827338185186619</v>
+        <v>3.303108299505595</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.416945002544367</v>
+        <v>0.6077389640202853</v>
       </c>
       <c r="C16">
-        <v>0.1381595355614849</v>
+        <v>0.1351880063811564</v>
       </c>
       <c r="D16">
-        <v>0.09862704251204235</v>
+        <v>0.05595609995077666</v>
       </c>
       <c r="E16">
-        <v>0.05343299195185303</v>
+        <v>0.1127725018489585</v>
       </c>
       <c r="F16">
-        <v>0.6354648738922748</v>
+        <v>0.9413192473837739</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.3939458423720588</v>
+        <v>0.8618499732044214</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.284256658229623</v>
+        <v>0.4178006819924747</v>
       </c>
       <c r="L16">
-        <v>0.2198631412578891</v>
+        <v>0.2210751812945517</v>
       </c>
       <c r="M16">
-        <v>0.3077030281243722</v>
+        <v>0.1751514579485445</v>
       </c>
       <c r="N16">
-        <v>0.7489821501828977</v>
+        <v>1.808335681976452</v>
       </c>
       <c r="O16">
-        <v>1.789908467635854</v>
+        <v>3.307083882470664</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.357892791039774</v>
+        <v>0.5910310177411873</v>
       </c>
       <c r="C17">
-        <v>0.1354128720273593</v>
+        <v>0.1342601432230381</v>
       </c>
       <c r="D17">
-        <v>0.09553331497413353</v>
+        <v>0.05489617265241264</v>
       </c>
       <c r="E17">
-        <v>0.05289384342751546</v>
+        <v>0.1128616501654864</v>
       </c>
       <c r="F17">
-        <v>0.6221471356730532</v>
+        <v>0.9403180987911099</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,25 +1147,25 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.3927016910156169</v>
+        <v>0.8636297600435796</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.231217482413228</v>
+        <v>0.4020600518599338</v>
       </c>
       <c r="L17">
-        <v>0.2124553407675052</v>
+        <v>0.2195298041020237</v>
       </c>
       <c r="M17">
-        <v>0.2951821064617306</v>
+        <v>0.1718377306756693</v>
       </c>
       <c r="N17">
-        <v>0.7652312134590529</v>
+        <v>1.81528498048764</v>
       </c>
       <c r="O17">
-        <v>1.767998364366463</v>
+        <v>3.309946477742869</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.323980933185027</v>
+        <v>0.5814329298522409</v>
       </c>
       <c r="C18">
-        <v>0.1338335569897353</v>
+        <v>0.1337248283536923</v>
       </c>
       <c r="D18">
-        <v>0.09375312558155713</v>
+        <v>0.05428490491298987</v>
       </c>
       <c r="E18">
-        <v>0.05259099672074008</v>
+        <v>0.1129169180141911</v>
       </c>
       <c r="F18">
-        <v>0.6146082548095535</v>
+        <v>0.9397900610194299</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,25 +1194,25 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.392068057152958</v>
+        <v>0.864690386202458</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.200745009088934</v>
+        <v>0.3930059256684331</v>
       </c>
       <c r="L18">
-        <v>0.2082186969764308</v>
+        <v>0.2186506592768609</v>
       </c>
       <c r="M18">
-        <v>0.2879984904220763</v>
+        <v>0.169937488480322</v>
       </c>
       <c r="N18">
-        <v>0.7746972831893694</v>
+        <v>1.819336442241072</v>
       </c>
       <c r="O18">
-        <v>1.755770230894512</v>
+        <v>3.311748749093084</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.312507733046289</v>
+        <v>0.5781852431519496</v>
       </c>
       <c r="C19">
-        <v>0.1332988939725084</v>
+        <v>0.1335433001834403</v>
       </c>
       <c r="D19">
-        <v>0.09315024229044866</v>
+        <v>0.05407766179578744</v>
       </c>
       <c r="E19">
-        <v>0.05248968792868069</v>
+        <v>0.1129363169805604</v>
       </c>
       <c r="F19">
-        <v>0.6120761144723801</v>
+        <v>0.9396194887997709</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.3918673753511008</v>
+        <v>0.8650558420121293</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.190433087530408</v>
+        <v>0.3899402790774786</v>
       </c>
       <c r="L19">
-        <v>0.2067882891692392</v>
+        <v>0.2183546669602663</v>
       </c>
       <c r="M19">
-        <v>0.2855692440190509</v>
+        <v>0.1692950867675194</v>
       </c>
       <c r="N19">
-        <v>0.77792272457082</v>
+        <v>1.82071754200634</v>
       </c>
       <c r="O19">
-        <v>1.751693061417853</v>
+        <v>3.312385729827781</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.364173375762846</v>
+        <v>0.5928083823627617</v>
       </c>
       <c r="C20">
-        <v>0.1357052035059567</v>
+        <v>0.1343590849504039</v>
       </c>
       <c r="D20">
-        <v>0.0958627234016447</v>
+        <v>0.05500917216343737</v>
       </c>
       <c r="E20">
-        <v>0.05295048165584681</v>
+        <v>0.1128517471453083</v>
       </c>
       <c r="F20">
-        <v>0.6235521973630043</v>
+        <v>0.9404197267826717</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.3928255963570813</v>
+        <v>0.8634364759320476</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.236859964045522</v>
+        <v>0.4037357277624665</v>
       </c>
       <c r="L20">
-        <v>0.2132413935477331</v>
+        <v>0.2196933072229683</v>
       </c>
       <c r="M20">
-        <v>0.2965130831684561</v>
+        <v>0.1721898909670045</v>
       </c>
       <c r="N20">
-        <v>0.7634889959050678</v>
+        <v>1.814539584571816</v>
       </c>
       <c r="O20">
-        <v>1.770291748396005</v>
+        <v>3.30962562834074</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.538431563978889</v>
+        <v>0.6420805693989848</v>
       </c>
       <c r="C21">
-        <v>0.1437974055996989</v>
+        <v>0.1370804579386373</v>
       </c>
       <c r="D21">
-        <v>0.104968081043296</v>
+        <v>0.05811943533664987</v>
       </c>
       <c r="E21">
-        <v>0.05458664662259949</v>
+        <v>0.1126152582879083</v>
       </c>
       <c r="F21">
-        <v>0.6635885508558559</v>
+        <v>0.9436792411889456</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.3970413283980676</v>
+        <v>0.8584368628589303</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.393283832368581</v>
+        <v>0.4500789785664665</v>
       </c>
       <c r="L21">
-        <v>0.2352185603775325</v>
+        <v>0.2243068527910168</v>
       </c>
       <c r="M21">
-        <v>0.3335068814781934</v>
+        <v>0.1819841411418892</v>
       </c>
       <c r="N21">
-        <v>0.7164448255524514</v>
+        <v>1.794432593771076</v>
       </c>
       <c r="O21">
-        <v>1.837337472980607</v>
+        <v>3.302212815380273</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.652889316600834</v>
+        <v>0.6743840204542266</v>
       </c>
       <c r="C22">
-        <v>0.1490949848692225</v>
+        <v>0.138844352705874</v>
       </c>
       <c r="D22">
-        <v>0.1109148570512843</v>
+        <v>0.06013750901306025</v>
       </c>
       <c r="E22">
-        <v>0.05572445527463898</v>
+        <v>0.1124961192462806</v>
       </c>
       <c r="F22">
-        <v>0.6909289976367887</v>
+        <v>0.9462344193155161</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.4005785396466877</v>
+        <v>0.8554979221247265</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.495903173547248</v>
+        <v>0.4803585678714057</v>
       </c>
       <c r="L22">
-        <v>0.2498194284589488</v>
+        <v>0.2274080435502697</v>
       </c>
       <c r="M22">
-        <v>0.3578699034249908</v>
+        <v>0.1884353016944758</v>
       </c>
       <c r="N22">
-        <v>0.6868200120131129</v>
+        <v>1.781776115710125</v>
       </c>
       <c r="O22">
-        <v>1.884758773090027</v>
+        <v>3.298753794513942</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.591744157511698</v>
+        <v>0.6571340196217932</v>
       </c>
       <c r="C23">
-        <v>0.1462665295626664</v>
+        <v>0.1379042789728118</v>
       </c>
       <c r="D23">
-        <v>0.1077411927066834</v>
+        <v>0.05906177588741457</v>
       </c>
       <c r="E23">
-        <v>0.05511072651899518</v>
+        <v>0.112556471296573</v>
       </c>
       <c r="F23">
-        <v>0.6762246234839751</v>
+        <v>0.9448318297856488</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.39861649785081</v>
+        <v>0.8570364405006501</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.441093714299683</v>
+        <v>0.4641987278300519</v>
       </c>
       <c r="L23">
-        <v>0.2420037990556949</v>
+        <v>0.2257450394847069</v>
       </c>
       <c r="M23">
-        <v>0.3448487063634857</v>
+        <v>0.1849876616198216</v>
       </c>
       <c r="N23">
-        <v>0.7025261096459734</v>
+        <v>1.788486769917317</v>
       </c>
       <c r="O23">
-        <v>1.85910574459848</v>
+        <v>3.300473223918459</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.361333805928552</v>
+        <v>0.5920048123023491</v>
       </c>
       <c r="C24">
-        <v>0.1355730411828091</v>
+        <v>0.1343143592325617</v>
       </c>
       <c r="D24">
-        <v>0.09571380275247066</v>
+        <v>0.05495809100536064</v>
       </c>
       <c r="E24">
-        <v>0.05292485338699571</v>
+        <v>0.112856211792252</v>
       </c>
       <c r="F24">
-        <v>0.6229166035140565</v>
+        <v>0.9403736326895071</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,25 +1476,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.3927693250104589</v>
+        <v>0.8635237431673488</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.23430893527555</v>
+        <v>0.4029781690630614</v>
       </c>
       <c r="L24">
-        <v>0.2128859501856795</v>
+        <v>0.2196193584468915</v>
       </c>
       <c r="M24">
-        <v>0.2959113026756768</v>
+        <v>0.1720306641391218</v>
       </c>
       <c r="N24">
-        <v>0.7642762659664881</v>
+        <v>1.814876402951517</v>
       </c>
       <c r="O24">
-        <v>1.769253765336344</v>
+        <v>3.309770196766976</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.114792386781915</v>
+        <v>0.5222090826934789</v>
       </c>
       <c r="C25">
-        <v>0.1240550279537587</v>
+        <v>0.1303797058565408</v>
       </c>
       <c r="D25">
-        <v>0.08270987915530981</v>
+        <v>0.05046954738889298</v>
       </c>
       <c r="E25">
-        <v>0.05084247556832544</v>
+        <v>0.113332231260193</v>
       </c>
       <c r="F25">
-        <v>0.5699969430379284</v>
+        <v>0.9373924672954885</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.3895692335353935</v>
+        <v>0.8719338412972277</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.012525610433102</v>
+        <v>0.3369234643374455</v>
       </c>
       <c r="L25">
-        <v>0.18238830608081</v>
+        <v>0.2133835404093389</v>
       </c>
       <c r="M25">
-        <v>0.2438032938121637</v>
+        <v>0.1582738623623783</v>
       </c>
       <c r="N25">
-        <v>0.8354463547940026</v>
+        <v>1.845422094532086</v>
       </c>
       <c r="O25">
-        <v>1.686491673341379</v>
+        <v>3.325755187718499</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_107/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_107/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.4712233308538032</v>
+        <v>0.9344742781144362</v>
       </c>
       <c r="C2">
-        <v>0.1274291188181138</v>
+        <v>0.1155653578935727</v>
       </c>
       <c r="D2">
-        <v>0.04711151860685447</v>
+        <v>0.07309357324153609</v>
       </c>
       <c r="E2">
-        <v>0.1138147368154083</v>
+        <v>0.0495264390557999</v>
       </c>
       <c r="F2">
-        <v>0.9367715181862977</v>
+        <v>0.5344896174394478</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -442,25 +442,25 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8793434615819109</v>
+        <v>0.3896263349106022</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2882797096711442</v>
+        <v>0.8498773860223139</v>
       </c>
       <c r="L2">
-        <v>0.2091133763820139</v>
+        <v>0.1605986767293857</v>
       </c>
       <c r="M2">
-        <v>0.1483359338671875</v>
+        <v>0.2058912710876335</v>
       </c>
       <c r="N2">
-        <v>1.8697055941516</v>
+        <v>0.8915245363366342</v>
       </c>
       <c r="O2">
-        <v>3.342655214366857</v>
+        <v>1.636366952258101</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.4369290482055703</v>
+        <v>0.8127947047239275</v>
       </c>
       <c r="C3">
-        <v>0.1253961860420318</v>
+        <v>0.1097957886018648</v>
       </c>
       <c r="D3">
-        <v>0.04480277232477192</v>
+        <v>0.06654351519898682</v>
       </c>
       <c r="E3">
-        <v>0.1142244436021809</v>
+        <v>0.04876087102869597</v>
       </c>
       <c r="F3">
-        <v>0.937333887060035</v>
+        <v>0.5123590235576998</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -489,25 +489,25 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.8851256903599563</v>
+        <v>0.3910505083646498</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2553132173878652</v>
+        <v>0.7398540560631091</v>
       </c>
       <c r="L3">
-        <v>0.2064207288184434</v>
+        <v>0.1461925917909284</v>
       </c>
       <c r="M3">
-        <v>0.1417215665227225</v>
+        <v>0.1804225299409126</v>
       </c>
       <c r="N3">
-        <v>1.887282939824448</v>
+        <v>0.9317071267044872</v>
       </c>
       <c r="O3">
-        <v>3.357312927166845</v>
+        <v>1.608511690664528</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.4160029602486759</v>
+        <v>0.7382716673741925</v>
       </c>
       <c r="C4">
-        <v>0.1241315927486966</v>
+        <v>0.1062422496889184</v>
       </c>
       <c r="D4">
-        <v>0.04336901101641644</v>
+        <v>0.06250335989004441</v>
       </c>
       <c r="E4">
-        <v>0.1145169273562843</v>
+        <v>0.04835026860344982</v>
       </c>
       <c r="F4">
-        <v>0.9381647070590091</v>
+        <v>0.4996551412251975</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -536,25 +536,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.8890516628248832</v>
+        <v>0.3925711252899937</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2350736876104662</v>
+        <v>0.672339995584025</v>
       </c>
       <c r="L4">
-        <v>0.2048670834967581</v>
+        <v>0.1375085674256837</v>
       </c>
       <c r="M4">
-        <v>0.1377204289288336</v>
+        <v>0.1648774249989025</v>
       </c>
       <c r="N4">
-        <v>1.898628565866457</v>
+        <v>0.9574175930987902</v>
       </c>
       <c r="O4">
-        <v>3.367895021276709</v>
+        <v>1.594229671336251</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.4075088987898994</v>
+        <v>0.7079411160373468</v>
       </c>
       <c r="C5">
-        <v>0.123612163087067</v>
+        <v>0.1047909825504192</v>
       </c>
       <c r="D5">
-        <v>0.04278069542084495</v>
+        <v>0.06085206748207383</v>
       </c>
       <c r="E5">
-        <v>0.1146464275102659</v>
+        <v>0.04819749652276251</v>
       </c>
       <c r="F5">
-        <v>0.9386254845195126</v>
+        <v>0.4946909107789779</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -583,25 +583,25 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.8907460646974954</v>
+        <v>0.3933480044013713</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2268269068872542</v>
+        <v>0.6448296967787712</v>
       </c>
       <c r="L5">
-        <v>0.2042590956540238</v>
+        <v>0.1340080395982994</v>
       </c>
       <c r="M5">
-        <v>0.1361051756573453</v>
+        <v>0.1585635812616708</v>
       </c>
       <c r="N5">
-        <v>1.903391114857171</v>
+        <v>0.9681506323868068</v>
       </c>
       <c r="O5">
-        <v>3.372605473493451</v>
+        <v>1.589091624321085</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.4061005070761041</v>
+        <v>0.702906796049092</v>
       </c>
       <c r="C6">
-        <v>0.1235256652118863</v>
+        <v>0.1045497978621484</v>
       </c>
       <c r="D6">
-        <v>0.04268276235237778</v>
+        <v>0.06057756823810934</v>
       </c>
       <c r="E6">
-        <v>0.1146685542510895</v>
+        <v>0.04817299633142902</v>
       </c>
       <c r="F6">
-        <v>0.9387093811539202</v>
+        <v>0.4938791756690719</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -630,25 +630,25 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.8910331307512145</v>
+        <v>0.3934863501402539</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2254576093132101</v>
+        <v>0.6402615411900143</v>
       </c>
       <c r="L6">
-        <v>0.204159660109859</v>
+        <v>0.1334290266057607</v>
       </c>
       <c r="M6">
-        <v>0.1358378884570826</v>
+        <v>0.1575163667602517</v>
       </c>
       <c r="N6">
-        <v>1.904190335905513</v>
+        <v>0.969948146887422</v>
       </c>
       <c r="O6">
-        <v>3.37341169757353</v>
+        <v>1.588278866709246</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.4158882699551043</v>
+        <v>0.737862476218254</v>
       </c>
       <c r="C7">
-        <v>0.1241246041058233</v>
+        <v>0.1062226907499877</v>
       </c>
       <c r="D7">
-        <v>0.04336109313921099</v>
+        <v>0.06248111015712965</v>
       </c>
       <c r="E7">
-        <v>0.114518632065872</v>
+        <v>0.0483481498630276</v>
       </c>
       <c r="F7">
-        <v>0.938170426272201</v>
+        <v>0.499587343137712</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -677,25 +677,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.8890741312502719</v>
+        <v>0.3925809727937306</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2349624639871735</v>
+        <v>0.6719689833316806</v>
       </c>
       <c r="L7">
-        <v>0.2048587820862906</v>
+        <v>0.13746120603858</v>
       </c>
       <c r="M7">
-        <v>0.1376985831718436</v>
+        <v>0.1647921927389291</v>
       </c>
       <c r="N7">
-        <v>1.898692231943724</v>
+        <v>0.9575613135939425</v>
       </c>
       <c r="O7">
-        <v>3.367956935530401</v>
+        <v>1.59415765185291</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.4593718841306327</v>
+        <v>0.8924742385218565</v>
       </c>
       <c r="C8">
-        <v>0.126731569881926</v>
+        <v>0.1135780400467752</v>
       </c>
       <c r="D8">
-        <v>0.04631883451543217</v>
+        <v>0.07083876167570935</v>
       </c>
       <c r="E8">
-        <v>0.1139475224948843</v>
+        <v>0.04924988454412649</v>
       </c>
       <c r="F8">
-        <v>0.9368647240680659</v>
+        <v>0.5266694693819787</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -724,25 +724,25 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.8812592493873446</v>
+        <v>0.3899800365607149</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2769127208750319</v>
+        <v>0.811927912254248</v>
       </c>
       <c r="L8">
-        <v>0.2081643138938603</v>
+        <v>0.1555965493891236</v>
       </c>
       <c r="M8">
-        <v>0.1460428982162014</v>
+        <v>0.1970888852201256</v>
       </c>
       <c r="N8">
-        <v>1.875651501021022</v>
+        <v>0.9051607963412365</v>
       </c>
       <c r="O8">
-        <v>3.347380988038239</v>
+        <v>1.626160022660699</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.545657917297774</v>
+        <v>1.19762020195401</v>
       </c>
       <c r="C9">
-        <v>0.1317134242825162</v>
+        <v>0.1279348166798684</v>
       </c>
       <c r="D9">
-        <v>0.05198979441599505</v>
+        <v>0.08709574688067079</v>
       </c>
       <c r="E9">
-        <v>0.1131514229903594</v>
+        <v>0.05150891769635457</v>
       </c>
       <c r="F9">
-        <v>0.9381523226505735</v>
+        <v>0.5872549326753784</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -771,25 +771,25 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.8689119607085303</v>
+        <v>0.3902556564888826</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3591759359457853</v>
+        <v>1.087104692838409</v>
       </c>
       <c r="L9">
-        <v>0.2154342973658885</v>
+        <v>0.1925505421156402</v>
       </c>
       <c r="M9">
-        <v>0.1628783510069312</v>
+        <v>0.2612770545066496</v>
       </c>
       <c r="N9">
-        <v>1.834854470795763</v>
+        <v>0.8108855825475771</v>
       </c>
       <c r="O9">
-        <v>3.319574191233016</v>
+        <v>1.7126030048058</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.6096470512793815</v>
+        <v>1.42369081908862</v>
       </c>
       <c r="C10">
-        <v>0.1352936603265462</v>
+        <v>0.1384730304019683</v>
       </c>
       <c r="D10">
-        <v>0.05607682412168913</v>
+        <v>0.09897996427557132</v>
       </c>
       <c r="E10">
-        <v>0.1127628699070566</v>
+        <v>0.05349550870965913</v>
       </c>
       <c r="F10">
-        <v>0.9414399595125289</v>
+        <v>0.6370012502599067</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -818,25 +818,25 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.8616518914159741</v>
+        <v>0.3940990878345119</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4195967128333393</v>
+        <v>1.290313709985128</v>
       </c>
       <c r="L10">
-        <v>0.2212528341921853</v>
+        <v>0.2207117670522649</v>
       </c>
       <c r="M10">
-        <v>0.1755303499955545</v>
+        <v>0.3091342836475377</v>
       </c>
       <c r="N10">
-        <v>1.807550091563199</v>
+        <v>0.7471444576398163</v>
       </c>
       <c r="O10">
-        <v>3.306778344179207</v>
+        <v>1.792460139025678</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.638881828771332</v>
+        <v>1.527108181268318</v>
       </c>
       <c r="C11">
-        <v>0.1369049701394545</v>
+        <v>0.1432725986607295</v>
       </c>
       <c r="D11">
-        <v>0.05791874631211869</v>
+        <v>0.1043783484419336</v>
       </c>
       <c r="E11">
-        <v>0.1126285159728067</v>
+        <v>0.05447669603935701</v>
       </c>
       <c r="F11">
-        <v>0.9434432528822896</v>
+        <v>0.6609273462511709</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.8587416733104192</v>
+        <v>0.3967234161327582</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4470764329413441</v>
+        <v>1.383126540440117</v>
       </c>
       <c r="L11">
-        <v>0.2240028821448306</v>
+        <v>0.2337809923155874</v>
       </c>
       <c r="M11">
-        <v>0.18134655543804</v>
+        <v>0.3310993203666257</v>
       </c>
       <c r="N11">
-        <v>1.795707255514241</v>
+        <v>0.7194287126232429</v>
       </c>
       <c r="O11">
-        <v>3.30261236735609</v>
+        <v>1.832787401793155</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.6499698249714356</v>
+        <v>1.566366673523589</v>
       </c>
       <c r="C12">
-        <v>0.1375126213511066</v>
+        <v>0.1450915525640681</v>
       </c>
       <c r="D12">
-        <v>0.05861372882610993</v>
+        <v>0.1064218621399391</v>
       </c>
       <c r="E12">
-        <v>0.1125837173328179</v>
+        <v>0.05485995067217253</v>
       </c>
       <c r="F12">
-        <v>0.9442747617211822</v>
+        <v>0.6701879077182937</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -912,25 +912,25 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.8576960157322446</v>
+        <v>0.3978506940822655</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4574810075855567</v>
+        <v>1.41833814167137</v>
       </c>
       <c r="L12">
-        <v>0.2250590215760297</v>
+        <v>0.2387704870889422</v>
       </c>
       <c r="M12">
-        <v>0.1835576242304668</v>
+        <v>0.3394485075094025</v>
       </c>
       <c r="N12">
-        <v>1.791305769015727</v>
+        <v>0.7091250691860091</v>
       </c>
       <c r="O12">
-        <v>3.301272551874206</v>
+        <v>1.848673153766072</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.6475810624865801</v>
+        <v>1.557907132130055</v>
       </c>
       <c r="C13">
-        <v>0.1373818650598935</v>
+        <v>0.1446997324564023</v>
       </c>
       <c r="D13">
-        <v>0.05846416413204736</v>
+        <v>0.1059817813083868</v>
       </c>
       <c r="E13">
-        <v>0.1125930954892951</v>
+        <v>0.05477688032127759</v>
       </c>
       <c r="F13">
-        <v>0.9440924406369717</v>
+        <v>0.6681843431581598</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -959,25 +959,25 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.8579187101507983</v>
+        <v>0.3976018520440761</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4552402670532558</v>
+        <v>1.41075158655778</v>
       </c>
       <c r="L13">
-        <v>0.2248309080426907</v>
+        <v>0.2376940560675962</v>
       </c>
       <c r="M13">
-        <v>0.183081050796666</v>
+        <v>0.337648900861943</v>
       </c>
       <c r="N13">
-        <v>1.792250010035843</v>
+        <v>0.7113354912460836</v>
       </c>
       <c r="O13">
-        <v>3.301550534738794</v>
+        <v>1.845223878523001</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.6397936995971065</v>
+        <v>1.53033598396317</v>
       </c>
       <c r="C14">
-        <v>0.1369550125303647</v>
+        <v>0.1434222119192299</v>
       </c>
       <c r="D14">
-        <v>0.05797597347240924</v>
+        <v>0.1045464820299244</v>
       </c>
       <c r="E14">
-        <v>0.1126247086522412</v>
+        <v>0.0545079888243496</v>
       </c>
       <c r="F14">
-        <v>0.9435102010977872</v>
+        <v>0.6616851220647391</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1006,25 +1006,25 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.8586545168088477</v>
+        <v>0.3968134375488148</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4479324546755663</v>
+        <v>1.386022038347676</v>
       </c>
       <c r="L14">
-        <v>0.2240894760951591</v>
+        <v>0.2341906505886584</v>
       </c>
       <c r="M14">
-        <v>0.1815282898692701</v>
+        <v>0.331785560593687</v>
       </c>
       <c r="N14">
-        <v>1.795343476265066</v>
+        <v>0.7185771384967445</v>
       </c>
       <c r="O14">
-        <v>3.302497376370809</v>
+        <v>1.834081777658099</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.6350259637482623</v>
+        <v>1.513460858108459</v>
       </c>
       <c r="C15">
-        <v>0.1366932246451142</v>
+        <v>0.1426399040781234</v>
       </c>
       <c r="D15">
-        <v>0.05767661445645444</v>
+        <v>0.103667235596852</v>
       </c>
       <c r="E15">
-        <v>0.1126448636378754</v>
+        <v>0.05434482586331235</v>
       </c>
       <c r="F15">
-        <v>0.9431630538071545</v>
+        <v>0.6577306684496804</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.8591125603061229</v>
+        <v>0.3963481284816197</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4434560104456295</v>
+        <v>1.370883359664703</v>
       </c>
       <c r="L15">
-        <v>0.2236372469231753</v>
+        <v>0.2320500839293373</v>
       </c>
       <c r="M15">
-        <v>0.1805782945992007</v>
+        <v>0.3281983068150467</v>
       </c>
       <c r="N15">
-        <v>1.797249141185607</v>
+        <v>0.7230380554305501</v>
       </c>
       <c r="O15">
-        <v>3.303108299505595</v>
+        <v>1.827338185186619</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.6077389640202853</v>
+        <v>1.416945002544395</v>
       </c>
       <c r="C16">
-        <v>0.1351880063811564</v>
+        <v>0.1381595355615701</v>
       </c>
       <c r="D16">
-        <v>0.05595609995077666</v>
+        <v>0.09862704251209209</v>
       </c>
       <c r="E16">
-        <v>0.1127725018489585</v>
+        <v>0.05343299195187612</v>
       </c>
       <c r="F16">
-        <v>0.9413192473837739</v>
+        <v>0.6354648738922606</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1100,25 +1100,25 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.8618499732044214</v>
+        <v>0.3939458423720872</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4178006819924747</v>
+        <v>1.284256658229594</v>
       </c>
       <c r="L16">
-        <v>0.2210751812945517</v>
+        <v>0.2198631412577896</v>
       </c>
       <c r="M16">
-        <v>0.1751514579485445</v>
+        <v>0.3077030281243935</v>
       </c>
       <c r="N16">
-        <v>1.808335681976452</v>
+        <v>0.7489821501828872</v>
       </c>
       <c r="O16">
-        <v>3.307083882470664</v>
+        <v>1.789908467635826</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.5910310177411873</v>
+        <v>1.35789279103966</v>
       </c>
       <c r="C17">
-        <v>0.1342601432230381</v>
+        <v>0.1354128720274659</v>
       </c>
       <c r="D17">
-        <v>0.05489617265241264</v>
+        <v>0.09553331497415485</v>
       </c>
       <c r="E17">
-        <v>0.1128616501654864</v>
+        <v>0.052893843427535</v>
       </c>
       <c r="F17">
-        <v>0.9403180987911099</v>
+        <v>0.6221471356730248</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1147,25 +1147,25 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.8636297600435796</v>
+        <v>0.3927016910156169</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.4020600518599338</v>
+        <v>1.231217482413427</v>
       </c>
       <c r="L17">
-        <v>0.2195298041020237</v>
+        <v>0.2124553407674199</v>
       </c>
       <c r="M17">
-        <v>0.1718377306756693</v>
+        <v>0.2951821064617519</v>
       </c>
       <c r="N17">
-        <v>1.81528498048764</v>
+        <v>0.7652312134589963</v>
       </c>
       <c r="O17">
-        <v>3.309946477742869</v>
+        <v>1.767998364366491</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.5814329298522409</v>
+        <v>1.323980933185027</v>
       </c>
       <c r="C18">
-        <v>0.1337248283536923</v>
+        <v>0.1338335569898916</v>
       </c>
       <c r="D18">
-        <v>0.05428490491298987</v>
+        <v>0.09375312558136528</v>
       </c>
       <c r="E18">
-        <v>0.1129169180141911</v>
+        <v>0.0525909967207312</v>
       </c>
       <c r="F18">
-        <v>0.9397900610194299</v>
+        <v>0.6146082548095748</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1194,25 +1194,25 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.864690386202458</v>
+        <v>0.3920680571529687</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3930059256684331</v>
+        <v>1.20074500908899</v>
       </c>
       <c r="L18">
-        <v>0.2186506592768609</v>
+        <v>0.2082186969764308</v>
       </c>
       <c r="M18">
-        <v>0.169937488480322</v>
+        <v>0.2879984904220905</v>
       </c>
       <c r="N18">
-        <v>1.819336442241072</v>
+        <v>0.7746972831893579</v>
       </c>
       <c r="O18">
-        <v>3.311748749093084</v>
+        <v>1.755770230894456</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.5781852431519496</v>
+        <v>1.312507733046402</v>
       </c>
       <c r="C19">
-        <v>0.1335433001834403</v>
+        <v>0.1332988939722739</v>
       </c>
       <c r="D19">
-        <v>0.05407766179578744</v>
+        <v>0.09315024229033497</v>
       </c>
       <c r="E19">
-        <v>0.1129363169805604</v>
+        <v>0.05248968792867892</v>
       </c>
       <c r="F19">
-        <v>0.9396194887997709</v>
+        <v>0.6120761144723588</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1241,25 +1241,25 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.8650558420121293</v>
+        <v>0.3918673753510618</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3899402790774786</v>
+        <v>1.190433087530465</v>
       </c>
       <c r="L19">
-        <v>0.2183546669602663</v>
+        <v>0.206788289169225</v>
       </c>
       <c r="M19">
-        <v>0.1692950867675194</v>
+        <v>0.2855692440190722</v>
       </c>
       <c r="N19">
-        <v>1.82071754200634</v>
+        <v>0.7779227245708057</v>
       </c>
       <c r="O19">
-        <v>3.312385729827781</v>
+        <v>1.751693061417939</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.5928083823627617</v>
+        <v>1.364173375762846</v>
       </c>
       <c r="C20">
-        <v>0.1343590849504039</v>
+        <v>0.1357052035060349</v>
       </c>
       <c r="D20">
-        <v>0.05500917216343737</v>
+        <v>0.09586272340187918</v>
       </c>
       <c r="E20">
-        <v>0.1128517471453083</v>
+        <v>0.05295048165584326</v>
       </c>
       <c r="F20">
-        <v>0.9404197267826717</v>
+        <v>0.6235521973629972</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1288,25 +1288,25 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.8634364759320476</v>
+        <v>0.3928255963570955</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.4037357277624665</v>
+        <v>1.236859964045578</v>
       </c>
       <c r="L20">
-        <v>0.2196933072229683</v>
+        <v>0.213241393547861</v>
       </c>
       <c r="M20">
-        <v>0.1721898909670045</v>
+        <v>0.2965130831684561</v>
       </c>
       <c r="N20">
-        <v>1.814539584571816</v>
+        <v>0.7634889959050766</v>
       </c>
       <c r="O20">
-        <v>3.30962562834074</v>
+        <v>1.77029174839609</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.6420805693989848</v>
+        <v>1.538431563978889</v>
       </c>
       <c r="C21">
-        <v>0.1370804579386373</v>
+        <v>0.1437974055997131</v>
       </c>
       <c r="D21">
-        <v>0.05811943533664987</v>
+        <v>0.1049680810431823</v>
       </c>
       <c r="E21">
-        <v>0.1126152582879083</v>
+        <v>0.05458664662258528</v>
       </c>
       <c r="F21">
-        <v>0.9436792411889456</v>
+        <v>0.6635885508558559</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1335,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.8584368628589303</v>
+        <v>0.3970413283980747</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4500789785664665</v>
+        <v>1.393283832368581</v>
       </c>
       <c r="L21">
-        <v>0.2243068527910168</v>
+        <v>0.2352185603775894</v>
       </c>
       <c r="M21">
-        <v>0.1819841411418892</v>
+        <v>0.3335068814782005</v>
       </c>
       <c r="N21">
-        <v>1.794432593771076</v>
+        <v>0.7164448255524336</v>
       </c>
       <c r="O21">
-        <v>3.302212815380273</v>
+        <v>1.837337472980579</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.6743840204542266</v>
+        <v>1.652889316601033</v>
       </c>
       <c r="C22">
-        <v>0.138844352705874</v>
+        <v>0.1490949848690235</v>
       </c>
       <c r="D22">
-        <v>0.06013750901306025</v>
+        <v>0.110914857051398</v>
       </c>
       <c r="E22">
-        <v>0.1124961192462806</v>
+        <v>0.05572445527463898</v>
       </c>
       <c r="F22">
-        <v>0.9462344193155161</v>
+        <v>0.6909289976367745</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1382,25 +1382,25 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.8554979221247265</v>
+        <v>0.4005785396466948</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4803585678714057</v>
+        <v>1.495903173547276</v>
       </c>
       <c r="L22">
-        <v>0.2274080435502697</v>
+        <v>0.2498194284589488</v>
       </c>
       <c r="M22">
-        <v>0.1884353016944758</v>
+        <v>0.3578699034249908</v>
       </c>
       <c r="N22">
-        <v>1.781776115710125</v>
+        <v>0.6868200120131072</v>
       </c>
       <c r="O22">
-        <v>3.298753794513942</v>
+        <v>1.884758773090056</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.6571340196217932</v>
+        <v>1.591744157511528</v>
       </c>
       <c r="C23">
-        <v>0.1379042789728118</v>
+        <v>0.1462665295626522</v>
       </c>
       <c r="D23">
-        <v>0.05906177588741457</v>
+        <v>0.1077411927067402</v>
       </c>
       <c r="E23">
-        <v>0.112556471296573</v>
+        <v>0.05511072651900939</v>
       </c>
       <c r="F23">
-        <v>0.9448318297856488</v>
+        <v>0.6762246234839751</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1429,25 +1429,25 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.8570364405006501</v>
+        <v>0.39861649785081</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4641987278300519</v>
+        <v>1.441093714299626</v>
       </c>
       <c r="L23">
-        <v>0.2257450394847069</v>
+        <v>0.2420037990556523</v>
       </c>
       <c r="M23">
-        <v>0.1849876616198216</v>
+        <v>0.3448487063635</v>
       </c>
       <c r="N23">
-        <v>1.788486769917317</v>
+        <v>0.7025261096460165</v>
       </c>
       <c r="O23">
-        <v>3.300473223918459</v>
+        <v>1.859105744598395</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.5920048123023491</v>
+        <v>1.361333805928638</v>
       </c>
       <c r="C24">
-        <v>0.1343143592325617</v>
+        <v>0.1355730411828162</v>
       </c>
       <c r="D24">
-        <v>0.05495809100536064</v>
+        <v>0.09571380275259145</v>
       </c>
       <c r="E24">
-        <v>0.112856211792252</v>
+        <v>0.05292485338700814</v>
       </c>
       <c r="F24">
-        <v>0.9403736326895071</v>
+        <v>0.6229166035140707</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1476,25 +1476,25 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.8635237431673488</v>
+        <v>0.3927693250104589</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.4029781690630614</v>
+        <v>1.234308935275493</v>
       </c>
       <c r="L24">
-        <v>0.2196193584468915</v>
+        <v>0.212885950185651</v>
       </c>
       <c r="M24">
-        <v>0.1720306641391218</v>
+        <v>0.2959113026756626</v>
       </c>
       <c r="N24">
-        <v>1.814876402951517</v>
+        <v>0.7642762659665443</v>
       </c>
       <c r="O24">
-        <v>3.309770196766976</v>
+        <v>1.769253765336259</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.5222090826934789</v>
+        <v>1.114792386781801</v>
       </c>
       <c r="C25">
-        <v>0.1303797058565408</v>
+        <v>0.1240550279537587</v>
       </c>
       <c r="D25">
-        <v>0.05046954738889298</v>
+        <v>0.08270987915518901</v>
       </c>
       <c r="E25">
-        <v>0.113332231260193</v>
+        <v>0.05084247556835209</v>
       </c>
       <c r="F25">
-        <v>0.9373924672954885</v>
+        <v>0.5699969430379141</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1523,25 +1523,25 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.8719338412972277</v>
+        <v>0.3895692335353864</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3369234643374455</v>
+        <v>1.01252561043313</v>
       </c>
       <c r="L25">
-        <v>0.2133835404093389</v>
+        <v>0.1823883060808171</v>
       </c>
       <c r="M25">
-        <v>0.1582738623623783</v>
+        <v>0.2438032938121637</v>
       </c>
       <c r="N25">
-        <v>1.845422094532086</v>
+        <v>0.8354463547940478</v>
       </c>
       <c r="O25">
-        <v>3.325755187718499</v>
+        <v>1.686491673341379</v>
       </c>
     </row>
   </sheetData>
